--- a/data/trans_dic/P36B14_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B14_R-Estudios-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,55%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>89,29; 93,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>68,54; 76,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>92,65; 95,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>75,08; 79,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>91,66; 94,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>73,55; 77,48</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,68%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>78,96; 82,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>65,74; 71,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>80,77; 84,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>72,51; 78,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>80,43; 82,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>70,07; 74,63</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,72%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>84,89; 90,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>76,05; 83,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>85,57; 91,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>80,68; 86,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>86,04; 89,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>79,47; 83,8</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,36%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>83,06; 85,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>69,47; 73,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>85,44; 87,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>75,51; 79,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>84,7; 86,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>73,26; 76,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B14_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B14_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>77,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>75,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,29; 93,24</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,54; 76,06</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,65; 95,58</t>
+          <t>0; 0,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,08; 79,78</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,66; 94,07</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,55; 77,48</t>
+          <t>0; 0,09</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>68,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>74,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,96; 82,65</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,74; 71,45</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,77; 84,2</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,51; 78,87</t>
+          <t>0; 0,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,43; 82,89</t>
+          <t>0; 0,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,07; 74,63</t>
+          <t>0; 0,04</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,89; 90,49</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,05; 83,0</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,57; 91,12</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,68; 86,04</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>86,04; 89,94</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,47; 83,8</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>71,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>77,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,06; 85,55</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,47; 73,5</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,44; 87,87</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,51; 79,2</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,7; 86,34</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,26; 76,23</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B14_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B14_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -928,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume menos de una bebida azucarada por día</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1898</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1427</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2135</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1016</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2027</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1151</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2042</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2208</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1472</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2021</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1771</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1821</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1263</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1490</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2037</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1311</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1566</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>